--- a/Fichas tecnicas/Cuadro-de-Cotizaciones.xlsx
+++ b/Fichas tecnicas/Cuadro-de-Cotizaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/Recursos/MATRIZ/MATRIZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoBrisasGems/Fichas tecnicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F901713-4500-473C-8E5A-0F34173DF579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{0F901713-4500-473C-8E5A-0F34173DF579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3935D6E-BDD7-44EC-9B4D-A8F278C4941F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Torre admin" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,8 @@
     <sheet name="Tarjeta de video nosotros" sheetId="14" r:id="rId14"/>
     <sheet name="Procesador Nosotros" sheetId="15" r:id="rId15"/>
     <sheet name="Teclado nosostros " sheetId="16" r:id="rId16"/>
-    <sheet name="Muse nosotros" sheetId="17" r:id="rId17"/>
-    <sheet name="software licencia" sheetId="18" r:id="rId18"/>
-    <sheet name="licencia visual" sheetId="19" r:id="rId19"/>
-    <sheet name="windows 11 licencia" sheetId="20" r:id="rId20"/>
-    <sheet name="licencia SQL" sheetId="21" r:id="rId21"/>
+    <sheet name="windows 11 licencia" sheetId="20" r:id="rId17"/>
+    <sheet name="Hosting" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="209">
   <si>
     <t>CUADRO DE COTIZACIONES</t>
   </si>
@@ -1111,135 +1108,62 @@
     <t>Referencia SlimStar 230</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.co/logitech-g203-lightsync-mouse-gamer-rgb-6-botones-8000dpi-color-negro/p/MCO16211422?pdp_filters=category:MCO1714#searchVariation=MCO16211422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a5eaca7-1b3b-422c-8409-09afa8f8a058</t>
-  </si>
-  <si>
-    <t>Logitech G203 Lightsync, Mouse Gamer Rgb, 6 Botones, 8000dpi Color Negro</t>
-  </si>
-  <si>
-    <t>Resolución de 8000dpi.</t>
-  </si>
-  <si>
-    <t>Falabella colombia</t>
-  </si>
-  <si>
-    <t>https://www.falabella.com.co/falabella-co/product/128340144/Mouse-Gamer-Logitech-G304-Lightspeed-Wireless/128340147</t>
-  </si>
-  <si>
-    <t>Mouse Gamer Logitech G304 Lightspeed Wireless</t>
-  </si>
-  <si>
-    <t>Tecnología Lightspeed para una conexión inalámbrica ultrarrápida.</t>
-  </si>
-  <si>
-    <t>Ktronix</t>
-  </si>
-  <si>
-    <t>https://www.ktronix.com/mouse-hyperx-alambrico-optico-pulsefire-core-6200dpi-rgb-gaming/p/196188043127?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=Shopping-organico</t>
-  </si>
-  <si>
-    <t>Mouse HYPERX Alámbrico Optico Pulsefire Core 6200DPI RGB Gaming</t>
-  </si>
-  <si>
-    <t>El HYPERX Pulsefire Core es un cómodo mouse RGB para juegos que cuenta con el sensor óptico Pixart 3327 para configuraciones de hasta 6200 DPI. Adicional cuenta con un seguimiento preciso y suave sin acelerar el hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYSTORE COLOMBIA </t>
-  </si>
-  <si>
-    <t>https://systorecolombia.com/59-windows</t>
-  </si>
-  <si>
-    <t>MICROSOFT WINDOWS 10 PROFESIONAL A 64 BITS OEM FQC-08981</t>
-  </si>
-  <si>
-    <t>Windows 10 es un sistema operativo de computadora personal desarrollado y lanzado por Microsoft como parte de la familia de sistemas operativos Windows NT</t>
-  </si>
-  <si>
-    <t>https://systorecolombia.com/windows/942-microsoft-windows-11-profesional-ggk-kit-de-legalizacion-64-bits-oem-4yr-00229.html</t>
-  </si>
-  <si>
-    <t>Microsoft Windows 11 Profesional GGK Kit de Legalización 64 Bits Oem 4YR-00229</t>
-  </si>
-  <si>
-    <t>Licencia para equipo usado, no transferible, muere con la maquina, incluye DVD de instalación</t>
-  </si>
-  <si>
-    <t>https://systorecolombia.com/windows/643-microsoft-windows-10-profesional-a-64-bits-usb-transferible-fqc-08788.html</t>
-  </si>
-  <si>
-    <t>Microsoft Windows 10 Profesional a 64 Bits Usb Transferible Fqc-08788</t>
-  </si>
-  <si>
-    <t>Digital licence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://digital-licence.com/es/producto/licencia-visual-studio-2022-enterprise/
-</t>
-  </si>
-  <si>
-    <t>Licencia Visual Studio 2022 Enterprise</t>
-  </si>
-  <si>
-    <t>Keys express</t>
-  </si>
-  <si>
-    <t>bienvenido@keys.express</t>
-  </si>
-  <si>
     <t>El mejor IDE completo para desarrolladores de .NET y C++ en Windows. Completamente equipado con una buena matriz de herramientas y características para elevar y mejorar todas las etapas del desarrollo de software.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROSOFT </t>
-  </si>
-  <si>
-    <t>https://visualstudio.microsoft.com/es/vs/pricing/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LICENCIA VISUAL </t>
-  </si>
-  <si>
-    <t>lasus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licencia Windows 11 Pro ESD Vitalicia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Colombia pc</t>
-  </si>
-  <si>
-    <t>(305) 3676372</t>
   </si>
   <si>
     <t>MICROSOFT</t>
   </si>
   <si>
-    <t>https://www.microsoft.com/es-co/</t>
+    <t xml:space="preserve">LICENCIA ORIGINAL MICROSOFT WIN 11 PRO 64Bit Español Latam
+</t>
   </si>
   <si>
-    <t>WINDOWS 11 HOME</t>
+    <t>Clones y Perisfericos</t>
   </si>
   <si>
-    <t>El sistema operativo primordial del los computadores que se usaran para el desarrollo del sistema web</t>
+    <t>Windows 11 Pro (Download)</t>
   </si>
   <si>
-    <t>Lasus</t>
+    <t>Windows 11 Pro Retail</t>
   </si>
   <si>
-    <t>Licencia de dispositivo SQL Server 2022 - 1 CAL</t>
+    <t>ColombiaKeys</t>
   </si>
   <si>
-    <t xml:space="preserve"> Garcia comunicaciones </t>
+    <t>+57 320 3453491</t>
   </si>
   <si>
-    <t>https://systorecolombia.com/server/252-licencia-sql-server-standard-2019-perpetua-dg7gmgf0fkx9.html</t>
+    <t>57 323 2937372</t>
   </si>
   <si>
-    <t>Licencia SQL Server Standard 2019 Perpetua DG7GMGF0FKX9</t>
+    <t>https://www.microsoft.com/es-co/d/windows-11-pro/dg7gmgf0d8h4</t>
+  </si>
+  <si>
+    <t>Godaddy</t>
+  </si>
+  <si>
+    <t>Web Hosting Deluxe</t>
+  </si>
+  <si>
+    <t>https://www.godaddy.com/es/hosting/web-hosting</t>
+  </si>
+  <si>
+    <t>Hostinger</t>
+  </si>
+  <si>
+    <t>Hosting Empresarial</t>
+  </si>
+  <si>
+    <t>Hosting Colombia</t>
+  </si>
+  <si>
+    <t>https://clientes.latinoamericahosting.com.co/store/hosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosting Web </t>
+  </si>
+  <si>
+    <t>https://www.hostinger.co/?utm_campaign=Brand-Exact|NT:Se|LO:CO&amp;utm_medium=ppc&amp;gad_source=1&amp;gclid=Cj0KCQiAgJa6BhCOARIsAMiL7V-zc5uvKlchjck2sBKw-JevS-3c4V8ConVRfFChqlbXmij3HSnjLkMaAhurEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1179,7 @@
     <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1537,13 +1461,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF4A4A4A"/>
       <name val="Arial"/>
@@ -1563,13 +1480,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1635,7 +1545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1773,6 +1683,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1780,7 +1710,7 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,9 +1732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1996,9 +1923,6 @@
     <xf numFmtId="168" fontId="41" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="42" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,7 +1935,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,23 +1956,10 @@
     <xf numFmtId="166" fontId="40" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="39" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2063,22 +1974,13 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2108,7 +2010,7 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,13 +2019,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="44" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="43" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="44" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="43" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="44" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2132,8 +2034,21 @@
     <xf numFmtId="169" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2162,6 +2077,7 @@
     <xf numFmtId="168" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2401,29 +2317,29 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
@@ -2478,33 +2394,33 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>712732</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>135419</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <f>(E8+F8)/3900</f>
         <v>217.47461538461539</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="98">
         <f>G8*3900</f>
         <v>848151</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2512,33 +2428,33 @@
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>589990</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>112098.1</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <f t="shared" ref="G9:G10" si="0">(E9+F9)/3900</f>
         <v>180.02258974358975</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="98">
         <f t="shared" ref="H9:H10" si="1">G9*3900</f>
         <v>702088.1</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2546,77 +2462,77 @@
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>892000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>169480</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>272.174358974359</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H10" s="98">
         <f t="shared" si="1"/>
         <v>1061480</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -2629,8 +2545,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -3646,60 +3562,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -3720,151 +3636,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>1099900</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="58">
         <f>E8*1.19</f>
         <v>1308881</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(F8+E8)/3900</f>
         <v>617.63615384615389</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>2408781</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="75" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>1313900</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="58">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>1563541</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>737.80538461538458</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f>G9*3900</f>
         <v>2877441</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>1507783</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <f t="shared" si="0"/>
         <v>1794261.77</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="1"/>
         <v>846.67814615384611</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f>G10*3900</f>
         <v>3302044.77</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -3877,8 +3793,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -4898,60 +4814,60 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -4972,151 +4888,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <v>56919</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>67733.61</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="84">
         <f>(E8+F8)/3900</f>
         <v>31.962207692307693</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="106">
         <f>G8*3900</f>
         <v>124652.61</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>236000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>280840</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="84">
         <f t="shared" ref="G9:G10" si="1">(E9+F9)/3900</f>
         <v>132.52307692307693</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="106">
         <f>G9*3900</f>
         <v>516840</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>199000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>236810</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="84">
         <f t="shared" si="1"/>
         <v>111.74615384615385</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="106">
         <f>G10*3900</f>
         <v>435810</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -5129,8 +5045,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -6147,60 +6063,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -6221,151 +6137,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <v>893296</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>1063022.24</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="83">
         <f>(F8+E8)/3900</f>
         <v>501.62006153846153</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="107">
         <f>G8*3900</f>
         <v>1956318.24</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>3850000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>4581500</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="83">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>2161.9230769230771</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="107">
         <f>G9*3900</f>
         <v>8431500</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>2399999</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>2855998.81</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="83">
         <f t="shared" si="1"/>
         <v>1347.6917461538462</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="107">
         <f>G10*3900</f>
         <v>5255997.8100000005</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -6378,8 +6294,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -7395,60 +7311,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -7469,151 +7385,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <v>50400</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>59976</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="80">
         <f>(F8+E8)/3900</f>
         <v>28.301538461538463</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="108">
         <f>G8*3900</f>
         <v>110376</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>812000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>966280</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="80">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>455.96923076923076</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="108">
         <f>G9*3900</f>
         <v>1778280</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>812000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>966280</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="80">
         <f t="shared" si="1"/>
         <v>455.96923076923076</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="108">
         <f>G10*3900</f>
         <v>1778280</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -7626,8 +7542,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -8643,60 +8559,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -8717,151 +8633,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="80">
         <v>190000</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>226100</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="81">
         <f>(F8+E8)/3900</f>
         <v>106.69230769230769</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="107">
         <f>G8*3900</f>
         <v>416100</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>705000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>838950</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="81">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>395.88461538461536</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="107">
         <f>G9*3900</f>
         <v>1543950</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="80">
         <v>430000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>511700</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="81">
         <f t="shared" si="1"/>
         <v>241.46153846153845</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="107">
         <f>G10*3900</f>
         <v>941700</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="79" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -8874,8 +8790,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -9891,60 +9807,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -9965,151 +9881,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="80">
         <v>1650000</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>1963500</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="81">
         <f>(F8+E8)/3900</f>
         <v>926.53846153846155</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="107">
         <f>G8*3900</f>
         <v>3613500</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="82" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="80">
         <v>1895000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>2255050</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="81">
         <f>(F9+E9)/3900</f>
         <v>1064.1153846153845</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="107">
         <f>G9*3900</f>
         <v>4150049.9999999995</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="82" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="80">
         <v>2627000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>3126130</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="81">
         <f>(F10+E10)/3900</f>
         <v>1475.1615384615384</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="107">
         <f>G10*3900</f>
         <v>5753130</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="82" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -10122,8 +10038,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -11139,60 +11055,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="131">
+      <c r="A5" s="126">
         <v>0</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -11213,151 +11129,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="70">
         <v>109900</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <f>E8*1.19</f>
         <v>130781</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="81">
         <f>(F8+E8)/3900</f>
         <v>61.713076923076926</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="107">
         <f>G8*3900</f>
         <v>240681</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="79" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>90000</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>107100</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="81">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>50.53846153846154</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="107">
         <f>G9*3900</f>
         <v>197100</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>46000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>54740</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="81">
         <f t="shared" si="1"/>
         <v>25.830769230769231</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="107">
         <f>G10*3900</f>
         <v>100740</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="77" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -11370,8 +11286,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -12367,11 +12283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -12386,65 +12302,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="87" t="s">
-        <v>190</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B6" s="112"/>
+    </row>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -12465,151 +12381,145 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="81" t="s">
+      <c r="B8" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="71">
-        <v>94430</v>
-      </c>
-      <c r="F8" s="82">
+      <c r="E8" s="96">
+        <v>628571.43000000005</v>
+      </c>
+      <c r="F8" s="96">
         <f>E8*1.19</f>
-        <v>112371.7</v>
-      </c>
-      <c r="G8" s="82">
+        <v>748000.00170000002</v>
+      </c>
+      <c r="G8" s="97">
         <f>(F8+E8)/3900</f>
-        <v>53.026076923076928</v>
-      </c>
-      <c r="H8" s="82">
+        <v>352.9670337692308</v>
+      </c>
+      <c r="H8" s="109">
         <f>G8*3900</f>
-        <v>206801.7</v>
-      </c>
-      <c r="I8" s="79" t="s">
+        <v>1376571.4317000001</v>
+      </c>
+      <c r="I8" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="81" t="s">
-        <v>193</v>
-      </c>
+      <c r="J8" s="92"/>
     </row>
-    <row r="9" spans="1:26" ht="68.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:26" ht="50.25" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="74">
-        <v>65900</v>
-      </c>
-      <c r="F9" s="82">
+      <c r="E9" s="96">
+        <v>33529.410000000003</v>
+      </c>
+      <c r="F9" s="96">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
-        <v>78421</v>
-      </c>
-      <c r="G9" s="82">
-        <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
-        <v>37.005384615384614</v>
-      </c>
-      <c r="H9" s="82">
+        <v>39899.997900000002</v>
+      </c>
+      <c r="G9" s="97">
+        <f>(F9+E9)/3900</f>
+        <v>18.828053307692308</v>
+      </c>
+      <c r="H9" s="109">
         <f>G9*3900</f>
-        <v>144321</v>
-      </c>
-      <c r="I9" s="79" t="s">
+        <v>73429.407900000006</v>
+      </c>
+      <c r="I9" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="81" t="s">
-        <v>197</v>
-      </c>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="71">
-        <v>90000</v>
-      </c>
-      <c r="F10" s="82">
+      <c r="D10" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="94">
+        <v>924369.75</v>
+      </c>
+      <c r="F10" s="96">
         <f t="shared" si="0"/>
-        <v>107100</v>
-      </c>
-      <c r="G10" s="82">
-        <f t="shared" si="1"/>
-        <v>50.53846153846154</v>
-      </c>
-      <c r="H10" s="82">
+        <v>1100000.0024999999</v>
+      </c>
+      <c r="G10" s="97">
+        <f>(F10+E10)/3900</f>
+        <v>519.06916730769228</v>
+      </c>
+      <c r="H10" s="109">
         <f>G10*3900</f>
-        <v>197100</v>
-      </c>
-      <c r="I10" s="79" t="s">
+        <v>2024369.7524999999</v>
+      </c>
+      <c r="I10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="89" t="s">
-        <v>201</v>
-      </c>
+      <c r="J10" s="92"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -12622,1263 +12532,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="28" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" location="searchVariation=MCO16211422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a5eaca7-1b3b-422c-8409-09afa8f8a058" display="https://www.mercadolibre.com.co/logitech-g203-lightsync-mouse-gamer-rgb-6-botones-8000dpi-color-negro/p/MCO16211422?pdp_filters=category:MCO1714 - searchVariation=MCO16211422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7a5eaca7-1b3b-422c-8409-09afa8f8a058" xr:uid="{BDA2A3C3-22BC-4B55-B5C5-F47443C40591}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{67911875-2CE0-42C3-9EF8-AE401A1A768E}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{4AB65529-FCC8-4002-AFDD-3CB8B312B654}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="26" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="71">
-        <v>460000</v>
-      </c>
-      <c r="F8" s="82">
-        <f>E8*1.19</f>
-        <v>547400</v>
-      </c>
-      <c r="G8" s="83">
-        <f>(F8+E8)/3900</f>
-        <v>258.30769230769232</v>
-      </c>
-      <c r="H8" s="119">
-        <f>G8*3900</f>
-        <v>1007400</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="71">
-        <v>640000</v>
-      </c>
-      <c r="F9" s="82">
-        <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
-        <v>761600</v>
-      </c>
-      <c r="G9" s="83">
-        <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
-        <v>359.38461538461536</v>
-      </c>
-      <c r="H9" s="119">
-        <f>G9*3900</f>
-        <v>1401600</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="74">
-        <v>890000</v>
-      </c>
-      <c r="F10" s="82">
-        <f t="shared" si="0"/>
-        <v>1059100</v>
-      </c>
-      <c r="G10" s="83">
-        <f t="shared" si="1"/>
-        <v>499.76923076923077</v>
-      </c>
-      <c r="H10" s="119">
-        <f>G10*3900</f>
-        <v>1949100</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="90">
-        <f t="shared" ref="G11" si="2">F11+E11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="18" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="19" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="20" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="21" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="22" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="23" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -14864,21 +13519,19 @@
     <mergeCell ref="A15:J15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{028CA1C3-FF15-4762-9FC1-B5772B0B50CF}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{E9BDE6BD-A3AD-4CE8-8057-BDD2DA0AE236}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{61238B6C-B0D7-4A9A-A356-D80A830D34F6}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{A3874CF2-E594-485B-85E0-444B1D247583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -14896,60 +13549,60 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -14970,150 +13623,149 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="94">
-        <v>778741</v>
-      </c>
-      <c r="F8" s="95">
-        <f t="shared" ref="F8:F9" si="0">E8*1.19</f>
-        <v>926701.78999999992</v>
-      </c>
-      <c r="G8" s="96">
-        <f t="shared" ref="G8:G9" si="1">(F8+E8)/3900</f>
-        <v>437.29302307692308</v>
-      </c>
-      <c r="H8" s="120">
+      <c r="B8" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="87">
+        <v>600000</v>
+      </c>
+      <c r="F8" s="88">
+        <f>E8*1.19</f>
+        <v>714000</v>
+      </c>
+      <c r="G8" s="89">
+        <f t="shared" ref="G8:G9" si="0">(F8+E8)/3900</f>
+        <v>336.92307692307691</v>
+      </c>
+      <c r="H8" s="110">
         <f>G8*3900</f>
-        <v>1705442.79</v>
-      </c>
-      <c r="I8" s="91" t="s">
+        <v>1314000</v>
+      </c>
+      <c r="I8" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="92"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="92" t="str">
-        <f t="shared" ref="D9" si="2">D8</f>
-        <v>Licencia Visual Studio 2022 Enterprise</v>
-      </c>
-      <c r="E9" s="94">
-        <v>778741</v>
-      </c>
-      <c r="F9" s="95">
+      <c r="B9" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="87">
+        <v>594000</v>
+      </c>
+      <c r="F9" s="88">
+        <f>E9*1.19</f>
+        <v>706860</v>
+      </c>
+      <c r="G9" s="89">
         <f t="shared" si="0"/>
-        <v>926701.78999999992</v>
-      </c>
-      <c r="G9" s="96">
-        <f t="shared" si="1"/>
-        <v>437.29302307692308</v>
-      </c>
-      <c r="H9" s="120">
+        <v>333.55384615384617</v>
+      </c>
+      <c r="H9" s="110">
         <f>G9*3900</f>
-        <v>1705442.79</v>
-      </c>
-      <c r="I9" s="91" t="s">
+        <v>1300860</v>
+      </c>
+      <c r="I9" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="97" t="s">
-        <v>216</v>
+      <c r="J9" s="90" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="94">
-        <v>778741</v>
-      </c>
-      <c r="F10" s="95">
+      <c r="B10" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="87">
+        <v>260000</v>
+      </c>
+      <c r="F10" s="88">
         <f>E10*1.19</f>
-        <v>926701.78999999992</v>
-      </c>
-      <c r="G10" s="96">
+        <v>309400</v>
+      </c>
+      <c r="G10" s="89">
         <f>(F10+E10)/3900</f>
-        <v>437.29302307692308</v>
-      </c>
-      <c r="H10" s="120">
+        <v>146</v>
+      </c>
+      <c r="H10" s="110">
         <f>G10*3900</f>
-        <v>1705442.79</v>
-      </c>
-      <c r="I10" s="91" t="s">
+        <v>569400</v>
+      </c>
+      <c r="I10" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="97" t="s">
-        <v>216</v>
+      <c r="J10" s="90" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="A13" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -15126,8 +13778,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -16113,7 +14765,9 @@
     <mergeCell ref="A15:J15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{BB1C18D6-44EB-4951-BE07-BCDCBB8F33C8}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{CE0513A1-4844-44D8-974B-B1A2F87C6B12}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{694BA75D-F693-49BD-9160-8B0A3798456E}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{3861DBBD-4D33-439D-B046-D6F8D53988ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16141,60 +14795,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="6"/>
@@ -16215,148 +14869,148 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="75" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>715300</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>135907</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <f>(E8+F8)/3900</f>
         <v>218.25820512820513</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="99">
         <f>G8*3900</f>
         <v>851207</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>699000</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>132810</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <f>(E9+F9)/3900</f>
         <v>213.28461538461539</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="99">
         <f t="shared" ref="H9:H10" si="0">G9*3900</f>
         <v>831810</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>1199900</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>227981</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <f>(E10+F10)/3900</f>
         <v>366.12333333333333</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="99">
         <f t="shared" si="0"/>
         <v>1427881</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -16369,8 +15023,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -17365,2497 +16019,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="26" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="105">
-        <v>3232540225</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="106">
-        <v>787426</v>
-      </c>
-      <c r="F8" s="106">
-        <f>E8*1.19</f>
-        <v>937036.94</v>
-      </c>
-      <c r="G8" s="107">
-        <f>(F8+E8)/3900</f>
-        <v>442.16998461538458</v>
-      </c>
-      <c r="H8" s="119">
-        <f>G8*3900</f>
-        <v>1724462.94</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="101" t="str">
-        <f t="shared" ref="D9" si="0">D8</f>
-        <v xml:space="preserve">Licencia Windows 11 Pro ESD Vitalicia
-</v>
-      </c>
-      <c r="E9" s="106">
-        <v>430000</v>
-      </c>
-      <c r="F9" s="106">
-        <f t="shared" ref="F9:F10" si="1">E9*1.19</f>
-        <v>511700</v>
-      </c>
-      <c r="G9" s="107">
-        <f>(F9+E9)/3900</f>
-        <v>241.46153846153845</v>
-      </c>
-      <c r="H9" s="119">
-        <f>G9*3900</f>
-        <v>941700</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="104">
-        <v>537534</v>
-      </c>
-      <c r="F10" s="106">
-        <f t="shared" si="1"/>
-        <v>639665.46</v>
-      </c>
-      <c r="G10" s="107">
-        <f>(F10+E10)/3900</f>
-        <v>301.84601538461538</v>
-      </c>
-      <c r="H10" s="119">
-        <f>G10*3900</f>
-        <v>1177199.46</v>
-      </c>
-      <c r="I10" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="18" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="19" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="20" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="21" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="22" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="23" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="28" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{731CF19D-D708-42C1-832C-60978BEC51CD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="26" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="92">
-        <v>3232540225</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="99">
-        <v>265131</v>
-      </c>
-      <c r="F8" s="99">
-        <f>E8*1.19</f>
-        <v>315505.89</v>
-      </c>
-      <c r="G8" s="96">
-        <f>(F8+E8)/3900</f>
-        <v>148.88125384615384</v>
-      </c>
-      <c r="H8" s="121">
-        <f>G8*3900</f>
-        <v>580636.89</v>
-      </c>
-      <c r="I8" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="92"/>
-    </row>
-    <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="93">
-        <v>3003227936</v>
-      </c>
-      <c r="D9" s="92" t="str">
-        <f t="shared" ref="D9" si="0">D8</f>
-        <v>Licencia de dispositivo SQL Server 2022 - 1 CAL</v>
-      </c>
-      <c r="E9" s="99">
-        <v>1293600</v>
-      </c>
-      <c r="F9" s="99">
-        <f t="shared" ref="F9:F10" si="1">E9*1.19</f>
-        <v>1539384</v>
-      </c>
-      <c r="G9" s="96">
-        <f>(F9+E9)/3900</f>
-        <v>726.40615384615387</v>
-      </c>
-      <c r="H9" s="121">
-        <f>G9*3900</f>
-        <v>2832984</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="92"/>
-    </row>
-    <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="71">
-        <v>3756303</v>
-      </c>
-      <c r="F10" s="99">
-        <f t="shared" si="1"/>
-        <v>4470000.5699999994</v>
-      </c>
-      <c r="G10" s="96">
-        <f>(F10+E10)/3900</f>
-        <v>2109.3086076923073</v>
-      </c>
-      <c r="H10" s="121">
-        <f>G10*3900</f>
-        <v>8226303.5699999984</v>
-      </c>
-      <c r="I10" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="100" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
-    <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="18" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="19" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="20" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="21" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="22" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="23" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="28" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="4:7" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{858D7D11-1568-4930-8615-663E22109A20}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
@@ -19877,60 +16040,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -19951,148 +16114,148 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>159900</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <v>30381</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(E8+F8)/3900</f>
         <v>48.79</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>190281</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <v>549900</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>104481</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" ref="G9:G10" si="0">(E9+F9)/3900</f>
         <v>167.79</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f t="shared" ref="H9:H10" si="1">G9*3900</f>
         <v>654381</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="130" t="s">
+      <c r="J9" s="125" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="129">
+      <c r="E10" s="124">
         <v>304900</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="123">
         <v>57931</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>93.033589743589744</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f t="shared" si="1"/>
         <v>362831</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="130"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="48">
+      <c r="A11" s="17"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="47">
         <v>3008921440</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -20105,8 +16268,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -21126,60 +17289,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -21200,149 +17363,149 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>102000</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f>E8*1.19</f>
         <v>121380</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="57">
         <f>(E8+F8)/3900</f>
         <v>57.276923076923076</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>223380</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <v>399900</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>475881</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="57">
         <f t="shared" ref="G9:G10" si="1">(E9+F9)/3900</f>
         <v>224.55923076923077</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f t="shared" ref="H9:H10" si="2">G9*3900</f>
         <v>875781</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <v>220000</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f t="shared" si="0"/>
         <v>261800</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="57">
         <f t="shared" si="1"/>
         <v>123.53846153846153</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f t="shared" si="2"/>
         <v>481800</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -21355,8 +17518,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -22371,60 +18534,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -22445,149 +18608,149 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="61">
         <v>8400000</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="61">
         <f>E8*1.19</f>
         <v>9996000</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(F8+E8)/3900</f>
         <v>4716.9230769230771</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>18396000</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="64" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <v>1199999</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="61">
         <f>E9*1.19</f>
         <v>1427998.8099999998</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f>(F9+E9)/3900</f>
         <v>673.84559230769219</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f t="shared" ref="H9:H10" si="0">G9*3900</f>
         <v>2627997.8099999996</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>1199999</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <f t="shared" ref="F10" si="1">E10*1.19</f>
         <v>1427998.8099999998</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" ref="G10" si="2">(F10+E10)/3900</f>
         <v>673.84559230769219</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f t="shared" si="0"/>
         <v>2627997.8099999996</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -22600,8 +18763,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -23617,60 +19780,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -23691,151 +19854,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>399000</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f>E8*1.19</f>
         <v>474810</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="65">
         <f>(F8+E8)/3900</f>
         <v>224.05384615384617</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>873810</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <v>180039</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>214246.41</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <f t="shared" ref="G9:G10" si="1">(F9+E9)/3900</f>
         <v>101.09882307692308</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f t="shared" ref="H9:H10" si="2">G9*3900</f>
         <v>394285.41000000003</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>99000</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f t="shared" si="0"/>
         <v>117810</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <f t="shared" si="1"/>
         <v>55.592307692307692</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f t="shared" si="2"/>
         <v>216810</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="67" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -23848,8 +20011,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -24865,60 +21028,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="131">
+      <c r="A5" s="126">
         <v>0</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -24939,151 +21102,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="73">
         <v>84888</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f>E8*1.19</f>
         <v>101016.72</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(E8+F8)/3900</f>
         <v>47.667876923076925</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>185904.72</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>59900</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f>E9*1.19</f>
         <v>71281</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" ref="G9:G10" si="0">(E9+F9)/3900</f>
         <v>33.636153846153846</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f t="shared" ref="H9:H10" si="1">G9*3900</f>
         <v>131181</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="71" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="127">
         <v>549900</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="127">
         <f>E10*1.19</f>
         <v>654381</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>308.79000000000002</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f t="shared" si="1"/>
         <v>1204281</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -25096,8 +21259,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -26116,60 +22279,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -26190,153 +22353,153 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>29640</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f>E8*1.19</f>
         <v>35271.599999999999</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(E8+F8)/3900</f>
         <v>16.643999999999998</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="101">
         <f>G8*3900</f>
         <v>64911.599999999991</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="112" t="s">
+      <c r="J8" s="102" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>27000</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>32130</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" ref="G9:G10" si="1">(E9+F9)/3900</f>
         <v>15.161538461538461</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="101">
         <f>G9*3900</f>
         <v>59130</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>145900</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f t="shared" si="0"/>
         <v>173621</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="1"/>
         <v>81.928461538461534</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="101">
         <f>G10*3900</f>
         <v>319521</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="104" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -26349,8 +22512,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -27366,60 +23529,60 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:26" ht="75.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="6"/>
@@ -27440,151 +23603,151 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <v>2129890</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="58">
         <f>E8*1.19</f>
         <v>2534569.1</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f>(E8+F8)/3900</f>
         <v>1196.0151538461537</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="100">
         <f>G8*3900</f>
         <v>4664459.0999999996</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>1849000</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="58">
         <f t="shared" ref="F9:F10" si="0">E9*1.19</f>
         <v>2200310</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f>(E9+F9)/3900</f>
         <v>1038.2846153846153</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="100">
         <f>G9*3900</f>
         <v>4049310</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="75" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>2249000</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <f t="shared" si="0"/>
         <v>2676310</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f>(E10+F10)/3900</f>
         <v>1262.9000000000001</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="100">
         <f>G10*3900</f>
         <v>4925310</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="75" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:26" ht="138.75" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:26" ht="75" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="17" spans="4:7" ht="12.75" customHeight="1"/>
@@ -27597,8 +23760,8 @@
     <row r="24" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="25" spans="4:7" ht="12.75" customHeight="1"/>
     <row r="26" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
